--- a/src/full/weather/final_0901/summary_final_0901.xlsx
+++ b/src/full/weather/final_0901/summary_final_0901.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Dropbox\USC\publication\TBsimulationCode\src\full\weather\final_0901\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E01E8360-2C11-4354-ADB3-7F657EA0DC38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87186A5D-4B15-44AA-950D-D2BF43CD9D70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,10 +602,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16180248957829069"/>
+          <c:x val="0.16994912734755735"/>
           <c:y val="3.7644605235156427E-2"/>
-          <c:w val="0.78886972564005631"/>
-          <c:h val="0.76383290077567123"/>
+          <c:w val="0.7807230878707897"/>
+          <c:h val="0.77348098154397371"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4366,7 +4366,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
-          <c:min val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4401,7 +4401,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>iteration</a:t>
+                  <a:t>Iteration</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4473,7 +4473,7 @@
         <c:axId val="468092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7"/>
+          <c:max val="8.5"/>
           <c:min val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4607,10 +4607,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.59443792048197308"/>
-          <c:y val="5.4863587997446277E-2"/>
+          <c:x val="0.17081275648010513"/>
+          <c:y val="0.43629454085229635"/>
           <c:w val="0.33116381883588181"/>
-          <c:h val="0.30795143623806803"/>
+          <c:h val="0.35110125797382125"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4673,7 +4673,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4702,7 +4702,7 @@
           <c:x val="0.18624240288609073"/>
           <c:y val="3.7644605235156427E-2"/>
           <c:w val="0.76442981233225638"/>
-          <c:h val="0.76010850598982405"/>
+          <c:h val="0.75579338990393208"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8463,7 +8463,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
-          <c:min val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8498,7 +8498,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>iteration</a:t>
+                  <a:t>Iteration</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8570,8 +8570,8 @@
         <c:axId val="468092736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
-          <c:min val="450"/>
+          <c:max val="1100"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8690,6 +8690,7 @@
         <c:crossAx val="476957152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8707,10 +8708,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63517110932830656"/>
-          <c:y val="0.14797343069546476"/>
+          <c:x val="0.17895939424937179"/>
+          <c:y val="4.2509152375370562E-2"/>
           <c:w val="0.33116381883588181"/>
-          <c:h val="0.30795143623806803"/>
+          <c:h val="0.34424313465671164"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8773,7 +8774,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -9902,8 +9903,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9932,16 +9933,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10271,7 +10272,7 @@
   <dimension ref="A1:KO14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
